--- a/input/stock.xlsx
+++ b/input/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dratw\Documents\codes\priceChecker\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320B1385-EA73-4CB5-9369-607C6EEB147E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3176A3A-95D8-4762-B9D8-FC551F667582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hold" sheetId="23" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>size</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>BB550PB1</t>
+  </si>
+  <si>
+    <t>DZ4706-200</t>
   </si>
 </sst>
 </file>
@@ -392,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3ED77E-355F-451A-8EC6-B2847837F9C7}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,8 +433,17 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -439,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E5512D-63D6-4854-A13F-1543E21BBB98}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/input/stock.xlsx
+++ b/input/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dratw\Documents\codes\priceChecker\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3176A3A-95D8-4762-B9D8-FC551F667582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E29F5E3-DD2C-4320-825D-78CB65C5EC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hold" sheetId="23" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>size</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>DZ4706-200</t>
+  </si>
+  <si>
+    <t>10W</t>
   </si>
 </sst>
 </file>
@@ -397,19 +400,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3ED77E-355F-451A-8EC6-B2847837F9C7}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -417,7 +420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -425,7 +428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -433,12 +436,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>10</v>
+      <c r="B4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -451,19 +454,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E5512D-63D6-4854-A13F-1543E21BBB98}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -471,7 +474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -479,7 +482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>

--- a/input/stock.xlsx
+++ b/input/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dratw\Documents\codes\priceChecker\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E29F5E3-DD2C-4320-825D-78CB65C5EC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D327E6-8D4D-41AF-B8C0-DB5B328DCBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hold" sheetId="23" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>size</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>10W</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
 </sst>
 </file>
@@ -398,50 +401,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3ED77E-355F-451A-8EC6-B2847837F9C7}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
+      </c>
+      <c r="C4">
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -458,15 +473,15 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -474,7 +489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -482,7 +497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>

--- a/input/stock.xlsx
+++ b/input/stock.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dratw\Documents\codes\priceChecker\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patryk_dratwa/Documents/codes/priceChecker/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D327E6-8D4D-41AF-B8C0-DB5B328DCBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C45E99-AA6A-094B-9360-0FDBF9E09AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="500" windowWidth="23260" windowHeight="12460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="hold" sheetId="23" r:id="rId1"/>
-    <sheet name="expected" sheetId="24" r:id="rId2"/>
+    <sheet name="flip" sheetId="24" r:id="rId1"/>
+    <sheet name="hold" sheetId="23" r:id="rId2"/>
+    <sheet name="expected" sheetId="25" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="51">
   <si>
     <t>size</t>
   </si>
@@ -40,28 +41,151 @@
     <t>sku</t>
   </si>
   <si>
+    <t>FZ5896</t>
+  </si>
+  <si>
+    <t>price_net</t>
+  </si>
+  <si>
+    <t>FZ5904</t>
+  </si>
+  <si>
+    <t>DD1873-102</t>
+  </si>
+  <si>
+    <t>8.5W</t>
+  </si>
+  <si>
+    <t>DC0774-141</t>
+  </si>
+  <si>
     <t>7W</t>
   </si>
   <si>
-    <t>FZ5896</t>
-  </si>
-  <si>
-    <t>1135092-DRI</t>
+    <t>9W</t>
+  </si>
+  <si>
+    <t>553558-612</t>
+  </si>
+  <si>
+    <t>553558-371</t>
   </si>
   <si>
     <t>554724-174</t>
   </si>
   <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>DZ5485-303</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>DO5441-001</t>
+  </si>
+  <si>
+    <t>7C</t>
+  </si>
+  <si>
+    <t>AQ9129-103</t>
+  </si>
+  <si>
+    <t>9.5W</t>
+  </si>
+  <si>
+    <t>10.5W</t>
+  </si>
+  <si>
+    <t>BB550WTG</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>DD1399-105</t>
+  </si>
+  <si>
+    <t>DD1399-106</t>
+  </si>
+  <si>
+    <t>DD1503-200</t>
+  </si>
+  <si>
+    <t>DV4024-002</t>
+  </si>
+  <si>
+    <t>6W</t>
+  </si>
+  <si>
+    <t>6.5W</t>
+  </si>
+  <si>
+    <t>DQ7576-001</t>
+  </si>
+  <si>
+    <t>10W</t>
+  </si>
+  <si>
+    <t>11W</t>
+  </si>
+  <si>
+    <t>12W</t>
+  </si>
+  <si>
+    <t>DX3382-400</t>
+  </si>
+  <si>
+    <t>7Y</t>
+  </si>
+  <si>
+    <t>DD1391-100</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>DD1503-101</t>
+  </si>
+  <si>
+    <t>8W</t>
+  </si>
+  <si>
+    <t>DO9457-100</t>
+  </si>
+  <si>
+    <t>7.5W</t>
+  </si>
+  <si>
+    <t>DZ4706-200</t>
+  </si>
+  <si>
+    <t>11.5W</t>
+  </si>
+  <si>
+    <t>DD1503-109</t>
+  </si>
+  <si>
+    <t>DD1391-402</t>
+  </si>
+  <si>
+    <t>HP6772</t>
+  </si>
+  <si>
+    <t>BD7633</t>
+  </si>
+  <si>
     <t>BB550PB1</t>
   </si>
   <si>
-    <t>DZ4706-200</t>
-  </si>
-  <si>
-    <t>10W</t>
-  </si>
-  <si>
-    <t>price</t>
+    <t>DD1503-118</t>
+  </si>
+  <si>
+    <t>5.5W</t>
+  </si>
+  <si>
+    <t>DX5930-001</t>
   </si>
 </sst>
 </file>
@@ -400,22 +524,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3ED77E-355F-451A-8EC6-B2847837F9C7}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E5512D-63D6-4854-A13F-1543E21BBB98}">
+  <dimension ref="A1:C108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -423,40 +547,1799 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>323.89999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
       </c>
       <c r="B3">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>323.89999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>323.89999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>323.89999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>323.89999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>323.89999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B11" t="s">
         <v>8</v>
       </c>
+      <c r="C11">
+        <v>549.99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>549.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>549.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>493.99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>249.99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>979.99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>979.99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>493.99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>493.99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>493.99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <v>493.99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28">
+        <v>493.99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60">
+        <v>499.99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>499.99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62">
+        <v>499.99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63">
+        <v>499.99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>37</v>
+      </c>
+      <c r="B66" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>39</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>39</v>
+      </c>
+      <c r="B75" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>39</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>41</v>
+      </c>
+      <c r="B82" t="s">
+        <v>42</v>
+      </c>
+      <c r="C82">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>43</v>
+      </c>
+      <c r="B83" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83">
+        <v>378.99</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>43</v>
+      </c>
+      <c r="B84" t="s">
+        <v>28</v>
+      </c>
+      <c r="C84">
+        <v>378.99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>43</v>
+      </c>
+      <c r="B85" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85">
+        <v>378.99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>43</v>
+      </c>
+      <c r="B86" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86">
+        <v>378.99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>43</v>
+      </c>
+      <c r="B87" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87">
+        <v>378.99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>44</v>
+      </c>
+      <c r="B88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>44</v>
+      </c>
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>44</v>
+      </c>
+      <c r="B90" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>44</v>
+      </c>
+      <c r="B91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>44</v>
+      </c>
+      <c r="B92" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>44</v>
+      </c>
+      <c r="B93" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>44</v>
+      </c>
+      <c r="B94" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>44</v>
+      </c>
+      <c r="B95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>44</v>
+      </c>
+      <c r="B96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>44</v>
+      </c>
+      <c r="B97" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>44</v>
+      </c>
+      <c r="B98" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>45</v>
+      </c>
+      <c r="B99">
+        <v>5</v>
+      </c>
+      <c r="C99">
+        <v>357.07317073170731</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>46</v>
+      </c>
+      <c r="B100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100">
+        <v>283.98373983739839</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>46</v>
+      </c>
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101">
+        <v>283.98373983739839</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>46</v>
+      </c>
+      <c r="B102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102">
+        <v>283.98373983739839</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>46</v>
+      </c>
+      <c r="B103" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103">
+        <v>283.98373983739839</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>46</v>
+      </c>
+      <c r="B104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104">
+        <v>283.98373983739839</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>46</v>
+      </c>
+      <c r="B105" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105">
+        <v>283.98373983739839</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>46</v>
+      </c>
+      <c r="B106" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106">
+        <v>283.98373983739839</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>47</v>
+      </c>
+      <c r="B107">
+        <v>7</v>
+      </c>
+      <c r="C107">
+        <v>447.14634146341467</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>47</v>
+      </c>
+      <c r="B108">
+        <v>7</v>
+      </c>
+      <c r="C108">
+        <v>447.14634146341467</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3ED77E-355F-451A-8EC6-B2847837F9C7}">
+  <dimension ref="A1:C54"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2">
+        <v>499.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>499.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
       <c r="C4">
-        <v>549</v>
+        <v>473.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>473.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>473.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>473.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>503.99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54">
+        <v>503.99</v>
       </c>
     </row>
   </sheetData>
@@ -465,44 +2348,47 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E5512D-63D6-4854-A13F-1543E21BBB98}">
-  <dimension ref="A1:B3"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687DE02D-CB03-5D43-A4D7-F32A6FF2695E}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>499</v>
       </c>
     </row>
   </sheetData>

--- a/input/stock.xlsx
+++ b/input/stock.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patryk_dratwa/Documents/codes/priceChecker/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26007E0-3C9F-0C40-9CAA-1398DBAC4055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF787A39-638D-A549-B8CA-2661388E2566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14280" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14280" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="hold" sheetId="23" r:id="rId1"/>
+    <sheet name="flip" sheetId="24" r:id="rId1"/>
+    <sheet name="hold" sheetId="23" r:id="rId2"/>
+    <sheet name="expected" sheetId="25" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="54">
   <si>
     <t>size</t>
   </si>
@@ -39,9 +41,6 @@
     <t>sku</t>
   </si>
   <si>
-    <t>FZ5904</t>
-  </si>
-  <si>
     <t>DD1873-102</t>
   </si>
   <si>
@@ -114,9 +113,6 @@
     <t>6Y</t>
   </si>
   <si>
-    <t>6.5Y</t>
-  </si>
-  <si>
     <t>BQ4422-001</t>
   </si>
   <si>
@@ -133,6 +129,72 @@
   </si>
   <si>
     <t>4.5</t>
+  </si>
+  <si>
+    <t>DC0774-141</t>
+  </si>
+  <si>
+    <t>9W</t>
+  </si>
+  <si>
+    <t>553558-612</t>
+  </si>
+  <si>
+    <t>553558-371</t>
+  </si>
+  <si>
+    <t>DZ5485-303</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>AQ9129-103</t>
+  </si>
+  <si>
+    <t>BB550WTG</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>DD1399-106</t>
+  </si>
+  <si>
+    <t>DQ7576-001</t>
+  </si>
+  <si>
+    <t>11W</t>
+  </si>
+  <si>
+    <t>DX3382-400</t>
+  </si>
+  <si>
+    <t>7Y</t>
+  </si>
+  <si>
+    <t>DO9457-100</t>
+  </si>
+  <si>
+    <t>DD1503-109</t>
+  </si>
+  <si>
+    <t>HP6772</t>
+  </si>
+  <si>
+    <t>DC0774-042</t>
+  </si>
+  <si>
+    <t>DV0427-301</t>
+  </si>
+  <si>
+    <t>BBW550PA</t>
+  </si>
+  <si>
+    <t>CW1590-100</t>
+  </si>
+  <si>
+    <t>5.5Y</t>
   </si>
 </sst>
 </file>
@@ -471,11 +533,394 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF463CAE-A640-F84D-A8F6-4B4EB03F0511}">
+  <dimension ref="A1:B46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3ED77E-355F-451A-8EC6-B2847837F9C7}">
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView topLeftCell="A61" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -496,79 +941,79 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>9</v>
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>9</v>
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>9</v>
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>9</v>
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>9</v>
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -576,431 +1021,431 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
         <v>3</v>
-      </c>
-      <c r="B50" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
         <v>3</v>
-      </c>
-      <c r="B51" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
         <v>3</v>
-      </c>
-      <c r="B52" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
         <v>3</v>
-      </c>
-      <c r="B53" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
         <v>3</v>
-      </c>
-      <c r="B54" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
         <v>3</v>
-      </c>
-      <c r="B55" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
         <v>3</v>
-      </c>
-      <c r="B56" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
         <v>3</v>
-      </c>
-      <c r="B57" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
         <v>3</v>
-      </c>
-      <c r="B58" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
         <v>3</v>
-      </c>
-      <c r="B59" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
         <v>3</v>
-      </c>
-      <c r="B61" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" t="s">
         <v>3</v>
-      </c>
-      <c r="B62" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B65" t="s">
         <v>4</v>
@@ -1008,182 +1453,205 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B69" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B70" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>15</v>
-      </c>
-      <c r="B73">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>18</v>
-      </c>
-      <c r="B79" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>18</v>
-      </c>
-      <c r="B80" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>18</v>
-      </c>
-      <c r="B81" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>18</v>
-      </c>
-      <c r="B82" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>18</v>
-      </c>
-      <c r="B83" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>18</v>
-      </c>
-      <c r="B84" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>18</v>
-      </c>
-      <c r="B85" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>19</v>
-      </c>
-      <c r="B86">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>19</v>
-      </c>
-      <c r="B87">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81DA2870-326B-4A4D-9290-CD8D11C26380}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input/stock.xlsx
+++ b/input/stock.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patryk_dratwa/Documents/codes/priceChecker/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF787A39-638D-A549-B8CA-2661388E2566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A60FFC-00EF-FC47-88D3-61E84846A21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14280" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14280" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flip" sheetId="24" r:id="rId1"/>
     <sheet name="hold" sheetId="23" r:id="rId2"/>
-    <sheet name="expected" sheetId="25" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="59">
   <si>
     <t>size</t>
   </si>
@@ -152,9 +151,6 @@
     <t>AQ9129-103</t>
   </si>
   <si>
-    <t>BB550WTG</t>
-  </si>
-  <si>
     <t>10.5</t>
   </si>
   <si>
@@ -195,6 +191,24 @@
   </si>
   <si>
     <t>5.5Y</t>
+  </si>
+  <si>
+    <t>DZ4706-200</t>
+  </si>
+  <si>
+    <t>11.5W</t>
+  </si>
+  <si>
+    <t>DB3021</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>DD1399-105</t>
+  </si>
+  <si>
+    <t>DD1503-101</t>
   </si>
 </sst>
 </file>
@@ -534,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF463CAE-A640-F84D-A8F6-4B4EB03F0511}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B46"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -576,74 +590,74 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>12</v>
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>12</v>
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11">
-        <v>7</v>
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12">
-        <v>8</v>
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -672,63 +686,63 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
         <v>42</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
         <v>42</v>
-      </c>
-      <c r="B18" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
         <v>42</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
         <v>42</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
         <v>42</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
         <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
@@ -736,7 +750,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
@@ -744,114 +758,114 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
         <v>44</v>
-      </c>
-      <c r="B27" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
         <v>44</v>
-      </c>
-      <c r="B28" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
         <v>44</v>
-      </c>
-      <c r="B29" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -859,12 +873,12 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
@@ -872,41 +886,65 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>18</v>
       </c>
-      <c r="B46">
+      <c r="B48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49">
         <v>7</v>
       </c>
     </row>
@@ -917,10 +955,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3ED77E-355F-451A-8EC6-B2847837F9C7}">
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:C87"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -941,63 +979,63 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
+        <v>55</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
+        <v>55</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
+        <v>55</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -1005,31 +1043,31 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
@@ -1037,74 +1075,74 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1112,7 +1150,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1120,7 +1158,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1128,7 +1166,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1136,7 +1174,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1144,7 +1182,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1152,7 +1190,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1296,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1304,7 +1342,7 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1312,7 +1350,7 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1320,7 +1358,7 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1328,7 +1366,7 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1336,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1344,7 +1382,7 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1352,7 +1390,7 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1360,7 +1398,7 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1368,7 +1406,7 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1376,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1384,7 +1422,7 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1392,7 +1430,7 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1408,12 +1446,12 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
@@ -1421,7 +1459,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
@@ -1429,229 +1467,174 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>17</v>
-      </c>
-      <c r="B72" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>17</v>
-      </c>
-      <c r="B73" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="B73">
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>58</v>
+      </c>
+      <c r="B79" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>45</v>
+      </c>
+      <c r="B81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>45</v>
+      </c>
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>47</v>
+      </c>
+      <c r="B83">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81DA2870-326B-4A4D-9290-CD8D11C26380}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/input/stock.xlsx
+++ b/input/stock.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patryk_dratwa/Documents/codes/priceChecker/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A60FFC-00EF-FC47-88D3-61E84846A21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B820429-94D4-2543-A79A-D16DBFF9B945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14280" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14280" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flip" sheetId="24" r:id="rId1"/>
     <sheet name="hold" sheetId="23" r:id="rId2"/>
+    <sheet name="expected" sheetId="25" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="56">
   <si>
     <t>size</t>
   </si>
@@ -97,18 +98,6 @@
     <t>DX5930-001</t>
   </si>
   <si>
-    <t>FJ0704-100</t>
-  </si>
-  <si>
-    <t>3.5Y</t>
-  </si>
-  <si>
-    <t>4Y</t>
-  </si>
-  <si>
-    <t>5Y</t>
-  </si>
-  <si>
     <t>6Y</t>
   </si>
   <si>
@@ -130,15 +119,9 @@
     <t>4.5</t>
   </si>
   <si>
-    <t>DC0774-141</t>
-  </si>
-  <si>
     <t>9W</t>
   </si>
   <si>
-    <t>553558-612</t>
-  </si>
-  <si>
     <t>553558-371</t>
   </si>
   <si>
@@ -148,9 +131,6 @@
     <t>6.5</t>
   </si>
   <si>
-    <t>AQ9129-103</t>
-  </si>
-  <si>
     <t>10.5</t>
   </si>
   <si>
@@ -172,9 +152,6 @@
     <t>DO9457-100</t>
   </si>
   <si>
-    <t>DD1503-109</t>
-  </si>
-  <si>
     <t>HP6772</t>
   </si>
   <si>
@@ -190,9 +167,6 @@
     <t>CW1590-100</t>
   </si>
   <si>
-    <t>5.5Y</t>
-  </si>
-  <si>
     <t>DZ4706-200</t>
   </si>
   <si>
@@ -209,6 +183,24 @@
   </si>
   <si>
     <t>DD1503-101</t>
+  </si>
+  <si>
+    <t>DN3707-100</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>FB1843-141</t>
+  </si>
+  <si>
+    <t>DV0831-101</t>
+  </si>
+  <si>
+    <t>5.5W</t>
+  </si>
+  <si>
+    <t>FD0873-126</t>
   </si>
 </sst>
 </file>
@@ -548,13 +540,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF463CAE-A640-F84D-A8F6-4B4EB03F0511}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B49"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -566,338 +562,338 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3">
-        <v>13</v>
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4">
-        <v>13</v>
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="B37">
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -910,41 +906,17 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" t="s">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="B45">
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
         <v>18</v>
       </c>
-      <c r="B48">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49">
+      <c r="B46">
         <v>7</v>
       </c>
     </row>
@@ -955,10 +927,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3ED77E-355F-451A-8EC6-B2847837F9C7}">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+    <sheetView topLeftCell="A56" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -979,178 +951,178 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>55</v>
       </c>
-      <c r="B7">
-        <v>6</v>
+      <c r="B7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>14</v>
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
+        <v>46</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
+        <v>46</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
+        <v>46</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22">
-        <v>12</v>
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1158,7 +1130,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1166,7 +1138,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1198,7 +1170,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1318,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1326,7 +1298,7 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1334,7 +1306,7 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1342,7 +1314,7 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1350,7 +1322,7 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1358,7 +1330,7 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1366,7 +1338,7 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1374,7 +1346,7 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1382,7 +1354,7 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1390,7 +1362,7 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1398,7 +1370,7 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1406,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1414,7 +1386,7 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1422,7 +1394,7 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1430,12 +1402,12 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
@@ -1443,7 +1415,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
@@ -1451,185 +1423,65 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B65" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>20</v>
-      </c>
-      <c r="B70" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>20</v>
-      </c>
-      <c r="B71" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>14</v>
-      </c>
-      <c r="B72">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>14</v>
-      </c>
-      <c r="B73">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>51</v>
-      </c>
-      <c r="B74" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>51</v>
-      </c>
-      <c r="B75" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>51</v>
-      </c>
-      <c r="B76" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>58</v>
-      </c>
-      <c r="B77" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>58</v>
-      </c>
-      <c r="B78" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>58</v>
-      </c>
-      <c r="B79" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>19</v>
-      </c>
-      <c r="B80" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>45</v>
-      </c>
-      <c r="B81" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>45</v>
-      </c>
-      <c r="B82" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>47</v>
-      </c>
-      <c r="B83">
+        <v>39</v>
+      </c>
+      <c r="B68">
         <v>5</v>
       </c>
     </row>
@@ -1637,4 +1489,335 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4C7E3B-80D0-F94D-BD6A-BB51AA7D03DC}">
+  <dimension ref="A1:B39"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input/stock.xlsx
+++ b/input/stock.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patryk_dratwa/Documents/codes/priceChecker/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B820429-94D4-2543-A79A-D16DBFF9B945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDD2369-B84D-5440-AB45-6C5825ECD6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14280" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flip" sheetId="24" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="63">
   <si>
     <t>size</t>
   </si>
@@ -53,154 +53,175 @@
     <t>554724-174</t>
   </si>
   <si>
+    <t>9.5W</t>
+  </si>
+  <si>
+    <t>10.5W</t>
+  </si>
+  <si>
+    <t>DV4024-002</t>
+  </si>
+  <si>
+    <t>6W</t>
+  </si>
+  <si>
+    <t>6.5W</t>
+  </si>
+  <si>
+    <t>10W</t>
+  </si>
+  <si>
+    <t>12W</t>
+  </si>
+  <si>
+    <t>DD1391-100</t>
+  </si>
+  <si>
+    <t>8W</t>
+  </si>
+  <si>
+    <t>7.5W</t>
+  </si>
+  <si>
+    <t>DD1391-402</t>
+  </si>
+  <si>
+    <t>BB550PB1</t>
+  </si>
+  <si>
+    <t>DX5930-001</t>
+  </si>
+  <si>
+    <t>11.5</t>
+  </si>
+  <si>
+    <t>DV0834-100</t>
+  </si>
+  <si>
+    <t>DD1503-801</t>
+  </si>
+  <si>
+    <t>CT8012-116</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>9W</t>
+  </si>
+  <si>
+    <t>553558-371</t>
+  </si>
+  <si>
+    <t>DZ5485-303</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>DD1399-106</t>
+  </si>
+  <si>
+    <t>DQ7576-001</t>
+  </si>
+  <si>
+    <t>11W</t>
+  </si>
+  <si>
+    <t>DX3382-400</t>
+  </si>
+  <si>
+    <t>7Y</t>
+  </si>
+  <si>
+    <t>DO9457-100</t>
+  </si>
+  <si>
+    <t>HP6772</t>
+  </si>
+  <si>
+    <t>DC0774-042</t>
+  </si>
+  <si>
+    <t>DV0427-301</t>
+  </si>
+  <si>
+    <t>DZ4706-200</t>
+  </si>
+  <si>
+    <t>11.5W</t>
+  </si>
+  <si>
+    <t>DB3021</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>DD1503-101</t>
+  </si>
+  <si>
+    <t>DN3707-100</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>DV0831-101</t>
+  </si>
+  <si>
+    <t>FD0873-126</t>
+  </si>
+  <si>
+    <t>CW1590-100</t>
+  </si>
+  <si>
+    <t>6Y</t>
+  </si>
+  <si>
+    <t>DO9369-101</t>
+  </si>
+  <si>
+    <t>DH9765-001</t>
+  </si>
+  <si>
+    <t>4Y</t>
+  </si>
+  <si>
+    <t>BD7633</t>
+  </si>
+  <si>
+    <t>FD9749-400</t>
+  </si>
+  <si>
+    <t>1135092-BLK</t>
+  </si>
+  <si>
+    <t>B75807</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>H01878</t>
+  </si>
+  <si>
+    <t>DO6485-600</t>
+  </si>
+  <si>
+    <t>4.5Y</t>
+  </si>
+  <si>
     <t>7.5</t>
   </si>
   <si>
-    <t>9.5W</t>
-  </si>
-  <si>
-    <t>10.5W</t>
-  </si>
-  <si>
-    <t>DV4024-002</t>
-  </si>
-  <si>
-    <t>6W</t>
-  </si>
-  <si>
-    <t>6.5W</t>
-  </si>
-  <si>
-    <t>10W</t>
-  </si>
-  <si>
-    <t>12W</t>
-  </si>
-  <si>
-    <t>DD1391-100</t>
-  </si>
-  <si>
-    <t>8W</t>
-  </si>
-  <si>
-    <t>7.5W</t>
-  </si>
-  <si>
-    <t>DD1391-402</t>
-  </si>
-  <si>
-    <t>BB550PB1</t>
-  </si>
-  <si>
-    <t>DD1503-118</t>
-  </si>
-  <si>
-    <t>DX5930-001</t>
-  </si>
-  <si>
-    <t>6Y</t>
-  </si>
-  <si>
-    <t>BQ4422-001</t>
-  </si>
-  <si>
-    <t>11.5</t>
-  </si>
-  <si>
-    <t>DV0834-100</t>
-  </si>
-  <si>
-    <t>DD1503-801</t>
-  </si>
-  <si>
-    <t>CT8012-116</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>9W</t>
-  </si>
-  <si>
-    <t>553558-371</t>
-  </si>
-  <si>
-    <t>DZ5485-303</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>10.5</t>
-  </si>
-  <si>
-    <t>DD1399-106</t>
-  </si>
-  <si>
-    <t>DQ7576-001</t>
-  </si>
-  <si>
-    <t>11W</t>
-  </si>
-  <si>
-    <t>DX3382-400</t>
-  </si>
-  <si>
-    <t>7Y</t>
-  </si>
-  <si>
-    <t>DO9457-100</t>
-  </si>
-  <si>
-    <t>HP6772</t>
-  </si>
-  <si>
-    <t>DC0774-042</t>
-  </si>
-  <si>
-    <t>DV0427-301</t>
-  </si>
-  <si>
-    <t>BBW550PA</t>
-  </si>
-  <si>
-    <t>CW1590-100</t>
-  </si>
-  <si>
-    <t>DZ4706-200</t>
-  </si>
-  <si>
-    <t>11.5W</t>
-  </si>
-  <si>
-    <t>DB3021</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>DD1399-105</t>
-  </si>
-  <si>
-    <t>DD1503-101</t>
-  </si>
-  <si>
-    <t>DN3707-100</t>
-  </si>
-  <si>
-    <t>8.5</t>
-  </si>
-  <si>
-    <t>FB1843-141</t>
-  </si>
-  <si>
-    <t>DV0831-101</t>
-  </si>
-  <si>
-    <t>5.5W</t>
-  </si>
-  <si>
-    <t>FD0873-126</t>
+    <t>DQ5130-400</t>
+  </si>
+  <si>
+    <t>H01877</t>
   </si>
 </sst>
 </file>
@@ -540,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF463CAE-A640-F84D-A8F6-4B4EB03F0511}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -562,34 +583,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -597,326 +618,246 @@
         <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>40</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
+      <c r="B7">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>14</v>
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B37">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>18</v>
-      </c>
-      <c r="B46">
         <v>7</v>
       </c>
     </row>
@@ -927,10 +868,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3ED77E-355F-451A-8EC6-B2847837F9C7}">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:B84"/>
+    <sheetView topLeftCell="A21" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -951,135 +892,135 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
@@ -1087,7 +1028,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
@@ -1095,15 +1036,15 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
@@ -1111,199 +1052,199 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
@@ -1311,7 +1252,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
@@ -1319,170 +1260,330 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>14</v>
-      </c>
-      <c r="B61">
-        <v>10</v>
+        <v>42</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B65" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>38</v>
-      </c>
-      <c r="B67" t="s">
-        <v>16</v>
+        <v>45</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>39</v>
-      </c>
-      <c r="B68">
+        <v>45</v>
+      </c>
+      <c r="B68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>46</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>53</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>38</v>
+      </c>
+      <c r="B75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>50</v>
+      </c>
+      <c r="B76" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>50</v>
+      </c>
+      <c r="B77" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>54</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>35</v>
+      </c>
+      <c r="B80">
         <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>52</v>
+      </c>
+      <c r="B81">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>55</v>
+      </c>
+      <c r="B82" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>55</v>
+      </c>
+      <c r="B83" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>55</v>
+      </c>
+      <c r="B84" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>57</v>
+      </c>
+      <c r="B85" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>57</v>
+      </c>
+      <c r="B86" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>57</v>
+      </c>
+      <c r="B87" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>57</v>
+      </c>
+      <c r="B88" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1493,16 +1594,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4C7E3B-80D0-F94D-BD6A-BB51AA7D03DC}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -1515,23 +1616,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2">
-        <v>15</v>
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -1539,282 +1640,242 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" t="s">
-        <v>16</v>
+        <v>62</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
+        <v>62</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" t="s">
-        <v>15</v>
+        <v>62</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" t="s">
-        <v>15</v>
+        <v>62</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" t="s">
-        <v>3</v>
+        <v>62</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3</v>
+        <v>62</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" t="s">
-        <v>28</v>
+        <v>62</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" t="s">
-        <v>28</v>
+        <v>62</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" t="s">
-        <v>28</v>
+        <v>62</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" t="s">
-        <v>51</v>
+        <v>62</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/input/stock.xlsx
+++ b/input/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patryk_dratwa/Documents/codes/priceChecker/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55FEE76-0B54-B24F-9EEB-4B503714D303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C377469-D822-FC47-9946-90F916262014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="4100" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="4100" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flip" sheetId="24" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="65">
   <si>
     <t>size</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>11.5W</t>
-  </si>
-  <si>
-    <t>DB3021</t>
   </si>
   <si>
     <t>5.5</t>
@@ -570,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF463CAE-A640-F84D-A8F6-4B4EB03F0511}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C41"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -590,235 +587,235 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>403.99</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>403.99</v>
+        <v>509</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>403.99</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>403.99</v>
+        <v>513.99</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>403.99</v>
+        <v>599</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>403.99</v>
+        <v>599</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>399</v>
+        <v>603.99</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>13</v>
       </c>
       <c r="C9">
-        <v>489</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>509</v>
+        <v>473.99</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C11">
-        <v>509</v>
+        <v>809</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>513.99</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C13">
-        <v>599</v>
+        <v>503.99</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C14">
-        <v>599</v>
+        <v>503.99</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C15">
-        <v>603.99</v>
+        <v>503.99</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16">
-        <v>13</v>
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
       </c>
       <c r="C16">
-        <v>469</v>
+        <v>503.99</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17">
-        <v>14</v>
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
       </c>
       <c r="C17">
-        <v>473.99</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C18">
-        <v>809</v>
+        <v>399</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19">
-        <v>8</v>
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
       </c>
       <c r="C19">
-        <v>489</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C20">
-        <v>503.99</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C21">
-        <v>503.99</v>
+        <v>499.99</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <v>503.99</v>
@@ -826,10 +823,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>503.99</v>
@@ -837,65 +834,65 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C24">
-        <v>399</v>
+        <v>499.99</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C25">
-        <v>399</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C26">
-        <v>399</v>
+        <v>503.99</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>399</v>
+        <v>503.99</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>499.99</v>
+        <v>499</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C29">
         <v>503.99</v>
@@ -903,133 +900,56 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C30">
-        <v>503.99</v>
+        <v>499</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" t="s">
-        <v>19</v>
+        <v>51</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>499.99</v>
+        <v>523.99</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C32">
-        <v>449</v>
+        <v>499</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C33">
-        <v>503.99</v>
+        <v>469</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C34">
-        <v>503.99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36">
-        <v>503.99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38">
-        <v>4</v>
-      </c>
-      <c r="C38">
-        <v>523.99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41">
         <v>654</v>
       </c>
     </row>
@@ -1062,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1078,7 +998,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -1089,7 +1009,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -1100,7 +1020,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -1111,7 +1031,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>15</v>
@@ -1177,10 +1097,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>429.99</v>
@@ -1188,10 +1108,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
         <v>57</v>
-      </c>
-      <c r="B13" t="s">
-        <v>58</v>
       </c>
       <c r="C13">
         <v>433.99</v>
@@ -1246,7 +1166,7 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18">
         <v>473.99</v>
@@ -1257,7 +1177,7 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19">
         <v>473.99</v>
@@ -1386,10 +1306,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
         <v>46</v>
-      </c>
-      <c r="B31" t="s">
-        <v>47</v>
       </c>
       <c r="C31">
         <v>429.99</v>
@@ -1397,7 +1317,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
@@ -1408,7 +1328,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
@@ -1419,7 +1339,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
@@ -1430,7 +1350,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
         <v>9</v>
@@ -1441,7 +1361,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
@@ -1452,7 +1372,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
@@ -1463,7 +1383,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
@@ -1474,7 +1394,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
@@ -1485,7 +1405,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
@@ -1496,7 +1416,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
@@ -1507,7 +1427,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
@@ -1518,7 +1438,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
@@ -1529,7 +1449,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
@@ -1540,7 +1460,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
@@ -1551,7 +1471,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
@@ -1562,7 +1482,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
         <v>4</v>
@@ -1573,7 +1493,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
         <v>4</v>
@@ -1584,7 +1504,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
@@ -1595,7 +1515,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B50" t="s">
         <v>4</v>
@@ -1606,7 +1526,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B51" t="s">
         <v>4</v>
@@ -1617,7 +1537,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
@@ -1628,7 +1548,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
@@ -1639,7 +1559,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
@@ -1650,7 +1570,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
@@ -1661,7 +1581,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
@@ -1672,7 +1592,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B57" t="s">
         <v>15</v>
@@ -1683,7 +1603,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B58" t="s">
         <v>15</v>
@@ -1694,7 +1614,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B59" t="s">
         <v>15</v>
@@ -1705,7 +1625,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
@@ -1716,7 +1636,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B61" t="s">
         <v>15</v>
@@ -1727,7 +1647,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
@@ -1738,7 +1658,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B63" t="s">
         <v>23</v>
@@ -1749,7 +1669,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B64" t="s">
         <v>23</v>
@@ -1760,7 +1680,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B65" t="s">
         <v>23</v>
@@ -1771,7 +1691,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B66" t="s">
         <v>23</v>
@@ -1782,7 +1702,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
@@ -1793,7 +1713,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
@@ -1804,7 +1724,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
@@ -1815,7 +1735,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
@@ -1826,7 +1746,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B71" t="s">
         <v>11</v>
@@ -1837,7 +1757,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B72" t="s">
         <v>11</v>
@@ -1848,7 +1768,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B73">
         <v>6</v>
@@ -1859,7 +1779,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B74" t="s">
         <v>26</v>
@@ -1870,7 +1790,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
@@ -1881,7 +1801,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B76" t="s">
         <v>30</v>
@@ -1892,7 +1812,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
@@ -1936,10 +1856,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>48</v>
+      </c>
+      <c r="B81" t="s">
         <v>49</v>
-      </c>
-      <c r="B81" t="s">
-        <v>50</v>
       </c>
       <c r="C81">
         <v>429</v>
@@ -1947,7 +1867,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B82" t="s">
         <v>32</v>
@@ -1969,7 +1889,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B84">
         <v>8</v>
@@ -1980,10 +1900,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C85">
         <v>446.34146341463418</v>
@@ -1991,10 +1911,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>53</v>
+      </c>
+      <c r="B86" t="s">
         <v>54</v>
-      </c>
-      <c r="B86" t="s">
-        <v>55</v>
       </c>
       <c r="C86">
         <v>446.34146341463418</v>
@@ -2002,10 +1922,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>53</v>
+      </c>
+      <c r="B87" t="s">
         <v>54</v>
-      </c>
-      <c r="B87" t="s">
-        <v>55</v>
       </c>
       <c r="C87">
         <v>446.34146341463418</v>
@@ -2013,7 +1933,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B88" t="s">
         <v>22</v>
@@ -2024,7 +1944,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B89" t="s">
         <v>22</v>
@@ -2035,7 +1955,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B90" t="s">
         <v>22</v>
@@ -2046,7 +1966,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B91" t="s">
         <v>22</v>
@@ -2057,7 +1977,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B92">
         <v>5</v>
@@ -2068,7 +1988,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B93">
         <v>5</v>
@@ -2079,7 +1999,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B94">
         <v>5</v>
@@ -2090,7 +2010,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B95">
         <v>5</v>
@@ -2101,7 +2021,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B96">
         <v>5</v>
@@ -2112,7 +2032,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B97">
         <v>5</v>
@@ -2123,7 +2043,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -2134,7 +2054,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -2145,7 +2065,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B100">
         <v>5</v>
@@ -2156,7 +2076,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B101">
         <v>5</v>
@@ -2197,7 +2117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4C7E3B-80D0-F94D-BD6A-BB51AA7D03DC}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -2215,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2275,7 +2195,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
@@ -2286,10 +2206,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
         <v>63</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
       </c>
       <c r="C8">
         <v>343.99</v>
@@ -2297,7 +2217,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -2308,7 +2228,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -2319,7 +2239,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -2330,7 +2250,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -2341,7 +2261,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -2352,7 +2272,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -2363,7 +2283,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
@@ -2374,7 +2294,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -2385,7 +2305,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>

--- a/input/stock.xlsx
+++ b/input/stock.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patryk_dratwa/Documents/codes/priceChecker/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C377469-D822-FC47-9946-90F916262014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E73528-3BD4-A641-8997-11C69E37673F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="4100" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="flip" sheetId="24" r:id="rId1"/>
+    <sheet name="flip" sheetId="26" r:id="rId1"/>
     <sheet name="hold" sheetId="23" r:id="rId2"/>
     <sheet name="expected" sheetId="25" r:id="rId3"/>
   </sheets>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="46">
   <si>
     <t>size</t>
   </si>
@@ -44,21 +44,12 @@
     <t>DD1873-102</t>
   </si>
   <si>
-    <t>8.5W</t>
-  </si>
-  <si>
     <t>7W</t>
   </si>
   <si>
-    <t>554724-174</t>
-  </si>
-  <si>
     <t>9.5W</t>
   </si>
   <si>
-    <t>10.5W</t>
-  </si>
-  <si>
     <t>DV4024-002</t>
   </si>
   <si>
@@ -68,12 +59,6 @@
     <t>6.5W</t>
   </si>
   <si>
-    <t>10W</t>
-  </si>
-  <si>
-    <t>12W</t>
-  </si>
-  <si>
     <t>DD1391-100</t>
   </si>
   <si>
@@ -83,151 +68,109 @@
     <t>7.5W</t>
   </si>
   <si>
-    <t>DD1391-402</t>
-  </si>
-  <si>
-    <t>BB550PB1</t>
-  </si>
-  <si>
-    <t>DX5930-001</t>
-  </si>
-  <si>
-    <t>11.5</t>
-  </si>
-  <si>
-    <t>DV0834-100</t>
-  </si>
-  <si>
-    <t>DD1503-801</t>
-  </si>
-  <si>
     <t>4.5</t>
   </si>
   <si>
     <t>9W</t>
   </si>
   <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>11W</t>
+  </si>
+  <si>
+    <t>7Y</t>
+  </si>
+  <si>
+    <t>DZ4706-200</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>DD1503-101</t>
+  </si>
+  <si>
+    <t>DN3707-100</t>
+  </si>
+  <si>
+    <t>DV0831-101</t>
+  </si>
+  <si>
+    <t>FD0873-126</t>
+  </si>
+  <si>
+    <t>DO9369-101</t>
+  </si>
+  <si>
+    <t>DH9765-001</t>
+  </si>
+  <si>
+    <t>4Y</t>
+  </si>
+  <si>
+    <t>B75807</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>H01878</t>
+  </si>
+  <si>
+    <t>DO6485-600</t>
+  </si>
+  <si>
+    <t>4.5Y</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>DQ5130-400</t>
+  </si>
+  <si>
+    <t>price_net</t>
+  </si>
+  <si>
+    <t>GSB550CA</t>
+  </si>
+  <si>
+    <t>5Y</t>
+  </si>
+  <si>
+    <t>FJ4734-100</t>
+  </si>
+  <si>
+    <t>HQ8717</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>stockx</t>
+  </si>
+  <si>
+    <t>alias</t>
+  </si>
+  <si>
+    <t>TAK</t>
+  </si>
+  <si>
+    <t>NIE</t>
+  </si>
+  <si>
     <t>553558-371</t>
   </si>
   <si>
-    <t>DZ5485-303</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>10.5</t>
-  </si>
-  <si>
-    <t>DD1399-106</t>
+    <t>DC0774-042</t>
   </si>
   <si>
     <t>DQ7576-001</t>
-  </si>
-  <si>
-    <t>11W</t>
-  </si>
-  <si>
-    <t>DX3382-400</t>
-  </si>
-  <si>
-    <t>7Y</t>
-  </si>
-  <si>
-    <t>DO9457-100</t>
-  </si>
-  <si>
-    <t>HP6772</t>
-  </si>
-  <si>
-    <t>DC0774-042</t>
-  </si>
-  <si>
-    <t>DV0427-301</t>
-  </si>
-  <si>
-    <t>DZ4706-200</t>
-  </si>
-  <si>
-    <t>11.5W</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>DD1503-101</t>
-  </si>
-  <si>
-    <t>DN3707-100</t>
-  </si>
-  <si>
-    <t>8.5</t>
-  </si>
-  <si>
-    <t>DV0831-101</t>
-  </si>
-  <si>
-    <t>FD0873-126</t>
-  </si>
-  <si>
-    <t>CW1590-100</t>
-  </si>
-  <si>
-    <t>6Y</t>
-  </si>
-  <si>
-    <t>DO9369-101</t>
-  </si>
-  <si>
-    <t>DH9765-001</t>
-  </si>
-  <si>
-    <t>4Y</t>
-  </si>
-  <si>
-    <t>BD7633</t>
-  </si>
-  <si>
-    <t>FD9749-400</t>
-  </si>
-  <si>
-    <t>1135092-BLK</t>
-  </si>
-  <si>
-    <t>B75807</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>H01878</t>
-  </si>
-  <si>
-    <t>DO6485-600</t>
-  </si>
-  <si>
-    <t>4.5Y</t>
-  </si>
-  <si>
-    <t>7.5</t>
-  </si>
-  <si>
-    <t>DQ5130-400</t>
-  </si>
-  <si>
-    <t>H01877</t>
-  </si>
-  <si>
-    <t>price_net</t>
-  </si>
-  <si>
-    <t>GSB550CA</t>
-  </si>
-  <si>
-    <t>5Y</t>
-  </si>
-  <si>
-    <t>FJ4734-100</t>
   </si>
 </sst>
 </file>
@@ -566,20 +509,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF463CAE-A640-F84D-A8F6-4B4EB03F0511}">
-  <dimension ref="A1:C34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC71ADAC-1FEE-B643-91BD-4A01E2D224E8}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -587,12 +533,18 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>13</v>
@@ -600,357 +552,45 @@
       <c r="C2">
         <v>489</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>509</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <v>513.99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>603.99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>473.99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13">
         <v>503.99</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14">
-        <v>503.99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15">
-        <v>503.99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16">
-        <v>503.99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21">
-        <v>499.99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22">
-        <v>503.99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>503.99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24">
-        <v>499.99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26">
-        <v>503.99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>503.99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29">
-        <v>503.99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <v>523.99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="D4" t="s">
         <v>42</v>
       </c>
-      <c r="C33">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34">
-        <v>654</v>
+      <c r="E4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -960,17 +600,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3ED77E-355F-451A-8EC6-B2847837F9C7}">
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C103"/>
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -982,26 +622,26 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>603.99</v>
+        <v>549</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>783.99</v>
@@ -1009,10 +649,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>783.99</v>
@@ -1020,10 +660,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>783.99</v>
@@ -1031,7 +671,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>15</v>
@@ -1042,35 +682,35 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C7">
-        <v>499</v>
+        <v>343.99</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>499</v>
+        <v>343.99</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>549</v>
+        <v>499</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1078,81 +718,81 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>503.99</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C11">
-        <v>499</v>
+        <v>429.99</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C12">
-        <v>429.99</v>
+        <v>433.99</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>433.99</v>
+        <v>549.99</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>499.99</v>
+        <v>549.99</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>7</v>
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>473.99</v>
+        <v>549.99</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
-        <v>7</v>
-      </c>
       <c r="C16">
-        <v>473.99</v>
+        <v>499.99</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B17">
         <v>7</v>
@@ -1163,10 +803,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>58</v>
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
       </c>
       <c r="C18">
         <v>473.99</v>
@@ -1174,10 +814,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>58</v>
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
       </c>
       <c r="C19">
         <v>473.99</v>
@@ -1185,10 +825,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
       </c>
       <c r="C20">
         <v>473.99</v>
@@ -1196,10 +836,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
       </c>
       <c r="C21">
         <v>473.99</v>
@@ -1207,10 +847,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
       </c>
       <c r="C22">
         <v>473.99</v>
@@ -1218,10 +858,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
       </c>
       <c r="C23">
         <v>473.99</v>
@@ -1229,10 +869,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>473.99</v>
@@ -1240,10 +880,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C25">
         <v>473.99</v>
@@ -1251,10 +891,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
       </c>
       <c r="C26">
         <v>473.99</v>
@@ -1262,10 +902,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
       </c>
       <c r="C27">
         <v>473.99</v>
@@ -1273,10 +913,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
       </c>
       <c r="C28">
         <v>473.99</v>
@@ -1284,10 +924,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C29">
         <v>473.99</v>
@@ -1295,10 +935,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C30">
         <v>473.99</v>
@@ -1306,142 +946,142 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" t="s">
-        <v>46</v>
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>11</v>
       </c>
       <c r="C31">
-        <v>429.99</v>
+        <v>473.99</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>11</v>
       </c>
       <c r="C32">
-        <v>453.99</v>
+        <v>473.99</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>11</v>
       </c>
       <c r="C33">
-        <v>453.99</v>
+        <v>473.99</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>11</v>
       </c>
       <c r="C34">
-        <v>449</v>
+        <v>473.99</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>11</v>
       </c>
       <c r="C35">
-        <v>449</v>
+        <v>473.99</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>11</v>
       </c>
       <c r="C36">
-        <v>449</v>
+        <v>473.99</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <v>11</v>
       </c>
       <c r="C37">
-        <v>449</v>
+        <v>473.99</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>12</v>
       </c>
       <c r="C38">
-        <v>449</v>
+        <v>473.99</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>12</v>
       </c>
       <c r="C39">
-        <v>449</v>
+        <v>473.99</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <v>12</v>
       </c>
       <c r="C40">
-        <v>449</v>
+        <v>473.99</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C41">
-        <v>449</v>
+        <v>453.99</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C42">
-        <v>449</v>
+        <v>453.99</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C43">
         <v>449</v>
@@ -1449,10 +1089,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C44">
         <v>449</v>
@@ -1460,10 +1100,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C45">
         <v>449</v>
@@ -1471,10 +1111,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C46">
         <v>449</v>
@@ -1482,10 +1122,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C47">
         <v>449</v>
@@ -1493,10 +1133,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C48">
         <v>449</v>
@@ -1504,10 +1144,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C49">
         <v>449</v>
@@ -1515,10 +1155,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C50">
         <v>449</v>
@@ -1526,10 +1166,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C51">
         <v>449</v>
@@ -1537,574 +1177,343 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C52">
-        <v>453.99</v>
+        <v>449</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C53">
-        <v>453.99</v>
+        <v>449</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C54">
-        <v>453.99</v>
+        <v>449</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C55">
-        <v>449</v>
+        <v>453.99</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C56">
-        <v>449</v>
+        <v>453.99</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C57">
-        <v>449</v>
+        <v>453.99</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C58">
-        <v>449</v>
+        <v>453.99</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C59">
-        <v>449</v>
+        <v>453.99</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C60">
-        <v>449</v>
+        <v>453.99</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C61">
-        <v>449</v>
+        <v>453.99</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>40</v>
-      </c>
-      <c r="B62" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
       </c>
       <c r="C62">
-        <v>449</v>
+        <v>503.99</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C63">
-        <v>453.99</v>
+        <v>499</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C64">
-        <v>453.99</v>
+        <v>499.99</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B65" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C65">
-        <v>449</v>
+        <v>499.99</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B66" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C66">
-        <v>449</v>
+        <v>503.99</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C67">
-        <v>453.99</v>
+        <v>503.99</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C68">
-        <v>453.99</v>
+        <v>499</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C69">
-        <v>453.99</v>
+        <v>429</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C70">
-        <v>453.99</v>
+        <v>429</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C71">
-        <v>499.99</v>
+        <v>549.99</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C72">
-        <v>499.99</v>
+        <v>446.34146341463418</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>43</v>
-      </c>
-      <c r="B73">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="B73" t="s">
+        <v>27</v>
       </c>
       <c r="C73">
-        <v>503.99</v>
+        <v>446.34146341463418</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B74" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C74">
-        <v>499</v>
+        <v>446.34146341463418</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C75">
-        <v>499.99</v>
+        <v>308.130081300813</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B76" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C76">
-        <v>499.99</v>
+        <v>308.130081300813</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B77" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C77">
-        <v>499.99</v>
+        <v>308.130081300813</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B78" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C78">
-        <v>503.99</v>
+        <v>405.6910569105691</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B79" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C79">
-        <v>503.99</v>
+        <v>405.6910569105691</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C80">
-        <v>499</v>
+        <v>405.6910569105691</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B81" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C81">
-        <v>429</v>
+        <v>405.6910569105691</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B82" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C82">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>34</v>
-      </c>
-      <c r="B83">
-        <v>5</v>
-      </c>
-      <c r="C83">
-        <v>357.07317073170731</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>50</v>
-      </c>
-      <c r="B84">
-        <v>8</v>
-      </c>
-      <c r="C84">
         <v>405.6910569105691</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>53</v>
-      </c>
-      <c r="B85" t="s">
-        <v>39</v>
-      </c>
-      <c r="C85">
-        <v>446.34146341463418</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>53</v>
-      </c>
-      <c r="B86" t="s">
-        <v>54</v>
-      </c>
-      <c r="C86">
-        <v>446.34146341463418</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>53</v>
-      </c>
-      <c r="B87" t="s">
-        <v>54</v>
-      </c>
-      <c r="C87">
-        <v>446.34146341463418</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>55</v>
-      </c>
-      <c r="B88" t="s">
-        <v>22</v>
-      </c>
-      <c r="C88">
-        <v>405.6910569105691</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>55</v>
-      </c>
-      <c r="B89" t="s">
-        <v>22</v>
-      </c>
-      <c r="C89">
-        <v>405.6910569105691</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>55</v>
-      </c>
-      <c r="B90" t="s">
-        <v>22</v>
-      </c>
-      <c r="C90">
-        <v>405.6910569105691</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>55</v>
-      </c>
-      <c r="B91" t="s">
-        <v>22</v>
-      </c>
-      <c r="C91">
-        <v>405.6910569105691</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>60</v>
-      </c>
-      <c r="B92">
-        <v>5</v>
-      </c>
-      <c r="C92">
-        <v>405.6910569105691</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>60</v>
-      </c>
-      <c r="B93">
-        <v>5</v>
-      </c>
-      <c r="C93">
-        <v>405.6910569105691</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>60</v>
-      </c>
-      <c r="B94">
-        <v>5</v>
-      </c>
-      <c r="C94">
-        <v>405.6910569105691</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>60</v>
-      </c>
-      <c r="B95">
-        <v>5</v>
-      </c>
-      <c r="C95">
-        <v>405.6910569105691</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>60</v>
-      </c>
-      <c r="B96">
-        <v>5</v>
-      </c>
-      <c r="C96">
-        <v>405.6910569105691</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>60</v>
-      </c>
-      <c r="B97">
-        <v>5</v>
-      </c>
-      <c r="C97">
-        <v>405.6910569105691</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>60</v>
-      </c>
-      <c r="B98">
-        <v>5</v>
-      </c>
-      <c r="C98">
-        <v>405.6910569105691</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>60</v>
-      </c>
-      <c r="B99">
-        <v>5</v>
-      </c>
-      <c r="C99">
-        <v>405.6910569105691</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>60</v>
-      </c>
-      <c r="B100">
-        <v>5</v>
-      </c>
-      <c r="C100">
-        <v>405.6910569105691</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>60</v>
-      </c>
-      <c r="B101">
-        <v>5</v>
-      </c>
-      <c r="C101">
-        <v>405.6910569105691</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>17</v>
-      </c>
-      <c r="B102">
-        <v>7</v>
-      </c>
-      <c r="C102">
-        <v>447.14634146341467</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>17</v>
-      </c>
-      <c r="B103">
-        <v>7</v>
-      </c>
-      <c r="C103">
-        <v>447.14634146341467</v>
       </c>
     </row>
   </sheetData>
@@ -2115,16 +1524,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4C7E3B-80D0-F94D-BD6A-BB51AA7D03DC}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -2135,183 +1545,150 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>11</v>
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>473.99</v>
+        <v>549</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>11</v>
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>473.99</v>
+        <v>549</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>11</v>
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>473.99</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>11</v>
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>473.99</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>11</v>
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>473.99</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>549.99</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>343.99</v>
+        <v>549</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>379</v>
+        <v>549</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>379</v>
+        <v>549</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>379</v>
+        <v>549</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>379</v>
+        <v>473.99</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>379</v>
+        <v>473.99</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>549.99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15">
-        <v>343.99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>549.99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17">
-        <v>549.99</v>
+        <v>473.99</v>
       </c>
     </row>
   </sheetData>

--- a/input/stock.xlsx
+++ b/input/stock.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patryk_dratwa/Documents/codes/priceChecker/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8998DEB8-C4D7-2742-A150-2910D0BB0E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982DEA3A-4B8C-A143-AAAA-78D48735A965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="4100" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="4100" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flip" sheetId="26" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="61">
   <si>
     <t>size</t>
   </si>
@@ -47,12 +47,6 @@
     <t>6W</t>
   </si>
   <si>
-    <t>6.5W</t>
-  </si>
-  <si>
-    <t>DD1503-101</t>
-  </si>
-  <si>
     <t>price_net</t>
   </si>
   <si>
@@ -74,157 +68,154 @@
     <t>4.5</t>
   </si>
   <si>
-    <t>HQ8717</t>
+    <t>553558-371</t>
+  </si>
+  <si>
+    <t>10.5W</t>
+  </si>
+  <si>
+    <t>DV0427-301</t>
+  </si>
+  <si>
+    <t>7.5W</t>
+  </si>
+  <si>
+    <t>554724-174</t>
+  </si>
+  <si>
+    <t>DZ5485-303</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>DD1399-106</t>
+  </si>
+  <si>
+    <t>DX3382-400</t>
+  </si>
+  <si>
+    <t>7Y</t>
+  </si>
+  <si>
+    <t>8.5W</t>
+  </si>
+  <si>
+    <t>DO9457-100</t>
+  </si>
+  <si>
+    <t>9W</t>
+  </si>
+  <si>
+    <t>10W</t>
+  </si>
+  <si>
+    <t>HP6772</t>
+  </si>
+  <si>
+    <t>BB550PB1</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>BD7633</t>
+  </si>
+  <si>
+    <t>GSB550CA</t>
+  </si>
+  <si>
+    <t>FJ4734-100</t>
+  </si>
+  <si>
+    <t>13.5W</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>11.5</t>
+  </si>
+  <si>
+    <t>DO9404-400</t>
+  </si>
+  <si>
+    <t>HR1467</t>
+  </si>
+  <si>
+    <t>FD0873-126</t>
+  </si>
+  <si>
+    <t>HQ9016</t>
+  </si>
+  <si>
+    <t>H03469</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>GW3159</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>HP9085</t>
+  </si>
+  <si>
+    <t>HQ8718</t>
+  </si>
+  <si>
+    <t>5.5W</t>
+  </si>
+  <si>
+    <t>CT8532-148</t>
+  </si>
+  <si>
+    <t>DD1503-500</t>
+  </si>
+  <si>
+    <t>H03470</t>
+  </si>
+  <si>
+    <t>ID2054</t>
+  </si>
+  <si>
+    <t>DV5429-600</t>
+  </si>
+  <si>
+    <t>HQ7045</t>
+  </si>
+  <si>
+    <t>BB5350</t>
+  </si>
+  <si>
+    <t>ID4126</t>
+  </si>
+  <si>
+    <t>HQ6448</t>
+  </si>
+  <si>
+    <t>ID4133</t>
+  </si>
+  <si>
+    <t>DD1503-103</t>
+  </si>
+  <si>
+    <t>8W</t>
+  </si>
+  <si>
+    <t>9.5W</t>
+  </si>
+  <si>
+    <t>H06125</t>
   </si>
   <si>
     <t>7W</t>
-  </si>
-  <si>
-    <t>8W</t>
-  </si>
-  <si>
-    <t>553558-371</t>
-  </si>
-  <si>
-    <t>DC0774-042</t>
-  </si>
-  <si>
-    <t>9.5W</t>
-  </si>
-  <si>
-    <t>10.5W</t>
-  </si>
-  <si>
-    <t>DV0427-301</t>
-  </si>
-  <si>
-    <t>7.5W</t>
-  </si>
-  <si>
-    <t>554724-174</t>
-  </si>
-  <si>
-    <t>DZ5485-303</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>DD1399-106</t>
-  </si>
-  <si>
-    <t>DQ7576-001</t>
-  </si>
-  <si>
-    <t>11W</t>
-  </si>
-  <si>
-    <t>DX3382-400</t>
-  </si>
-  <si>
-    <t>7Y</t>
-  </si>
-  <si>
-    <t>DD1503-801</t>
-  </si>
-  <si>
-    <t>12W</t>
-  </si>
-  <si>
-    <t>DX5930-001</t>
-  </si>
-  <si>
-    <t>8.5W</t>
-  </si>
-  <si>
-    <t>DO9457-100</t>
-  </si>
-  <si>
-    <t>9W</t>
-  </si>
-  <si>
-    <t>10W</t>
-  </si>
-  <si>
-    <t>DZ4706-200</t>
-  </si>
-  <si>
-    <t>11.5W</t>
-  </si>
-  <si>
-    <t>HP6772</t>
-  </si>
-  <si>
-    <t>H01877</t>
-  </si>
-  <si>
-    <t>BB550PB1</t>
-  </si>
-  <si>
-    <t>DB3021</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>BD7633</t>
-  </si>
-  <si>
-    <t>GSB550CA</t>
-  </si>
-  <si>
-    <t>5Y</t>
-  </si>
-  <si>
-    <t>DO6485-600</t>
-  </si>
-  <si>
-    <t>4Y</t>
-  </si>
-  <si>
-    <t>4.5Y</t>
-  </si>
-  <si>
-    <t>FJ4734-100</t>
-  </si>
-  <si>
-    <t>13.5W</t>
-  </si>
-  <si>
-    <t>DD1391-100</t>
-  </si>
-  <si>
-    <t>7.5</t>
-  </si>
-  <si>
-    <t>9.5</t>
-  </si>
-  <si>
-    <t>11.5</t>
-  </si>
-  <si>
-    <t>DH9765-001</t>
-  </si>
-  <si>
-    <t>B75807</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>DV0821-200</t>
-  </si>
-  <si>
-    <t>DD1391-602</t>
-  </si>
-  <si>
-    <t>DX4356-600</t>
-  </si>
-  <si>
-    <t>DO9404-400</t>
-  </si>
-  <si>
-    <t>HR1467</t>
   </si>
 </sst>
 </file>
@@ -564,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC71ADAC-1FEE-B643-91BD-4A01E2D224E8}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -587,47 +578,47 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>549</v>
+        <v>399.42</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
       <c r="C3">
-        <v>549</v>
+        <v>489</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -635,594 +626,424 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>549</v>
+        <v>599</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
+        <v>46</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>549</v>
+        <v>734.99</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>549</v>
+        <v>343.99</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>489</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C8">
-        <v>509</v>
+        <v>374.99</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C9">
-        <v>509</v>
+        <v>549.99</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
       <c r="C10">
-        <v>599</v>
+        <v>503.99</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11">
-        <v>14</v>
+      <c r="B11" t="s">
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>473.99</v>
+        <v>499</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C12">
-        <v>809</v>
+        <v>405.6910569105691</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13">
-        <v>8</v>
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
       </c>
       <c r="C13">
-        <v>489</v>
+        <v>446.34146341463418</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="C14">
-        <v>503.99</v>
+        <v>446.34146341463418</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C15">
-        <v>503.99</v>
+        <v>446.34146341463418</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C16">
-        <v>503.99</v>
+        <v>446.34146341463418</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C17">
-        <v>503.99</v>
+        <v>308.130081300813</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C18">
-        <v>399</v>
+        <v>308.130081300813</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C19">
-        <v>399</v>
+        <v>348.78048780487808</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>399</v>
+        <v>405.6910569105691</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>399</v>
+        <v>405.6910569105691</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C22">
-        <v>499.99</v>
+        <v>405.6910569105691</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C23">
-        <v>503.99</v>
+        <v>405.6910569105691</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>503.99</v>
+        <v>405.6910569105691</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" t="s">
-        <v>15</v>
+        <v>52</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
       </c>
       <c r="C25">
-        <v>503.99</v>
+        <v>893.4959349593496</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" t="s">
-        <v>33</v>
+        <v>52</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
       </c>
       <c r="C26">
-        <v>503.99</v>
+        <v>893.4959349593496</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" t="s">
-        <v>33</v>
+        <v>54</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>499</v>
+        <v>267.47967479674799</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" t="s">
-        <v>35</v>
+        <v>50</v>
+      </c>
+      <c r="B28">
+        <v>12</v>
       </c>
       <c r="C28">
-        <v>503.99</v>
+        <v>405.6910569105691</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29">
-        <v>499</v>
-      </c>
-      <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30">
-        <v>499</v>
-      </c>
-      <c r="D30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31">
-        <v>5</v>
-      </c>
-      <c r="C31">
-        <v>357.07317073170731</v>
-      </c>
-      <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32">
-        <v>5</v>
-      </c>
-      <c r="C32">
-        <v>405.6910569105691</v>
-      </c>
-      <c r="D32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33">
-        <v>5</v>
-      </c>
-      <c r="C33">
-        <v>405.6910569105691</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34">
-        <v>5</v>
-      </c>
-      <c r="C34">
-        <v>405.6910569105691</v>
-      </c>
-      <c r="D34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>5</v>
-      </c>
-      <c r="C35">
-        <v>405.6910569105691</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36">
-        <v>5</v>
-      </c>
-      <c r="C36">
-        <v>405.6910569105691</v>
-      </c>
-      <c r="D36" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37">
-        <v>7</v>
-      </c>
-      <c r="C37">
-        <v>447.14634146341467</v>
-      </c>
-      <c r="D37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38">
-        <v>7</v>
-      </c>
-      <c r="C38">
-        <v>447.14634146341467</v>
-      </c>
-      <c r="D38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3ED77E-355F-451A-8EC6-B2847837F9C7}">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E70"/>
+      <selection activeCell="D2" sqref="D2:E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1255,1186 +1076,812 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>403.99</v>
+        <v>473.99</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>403.99</v>
+        <v>809</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>403.99</v>
+        <v>499</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>403.99</v>
+        <v>399</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>403.99</v>
+        <v>399</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>399.42</v>
+        <v>399</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>513.99</v>
+        <v>399</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9">
-        <v>603.99</v>
+        <v>499</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10">
-        <v>13</v>
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>469</v>
+        <v>592.20000000000005</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>343.99</v>
+        <v>599.99</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
+        <v>48</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>343.99</v>
+        <v>405.6910569105691</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C13">
-        <v>499</v>
+        <v>405.6910569105691</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" t="s">
-        <v>48</v>
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>429.99</v>
+        <v>324.39024390243901</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>433.99</v>
+        <v>324.39024390243901</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
+        <v>39</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>549.99</v>
+        <v>405.6910569105691</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>549.99</v>
+        <v>357.07317073170731</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C18">
-        <v>549.99</v>
+        <v>348.78048780487808</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C19">
-        <v>549.99</v>
+        <v>446.34146341463418</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" t="s">
-        <v>51</v>
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>549.99</v>
+        <v>405.6910569105691</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="B21">
         <v>7</v>
       </c>
       <c r="C21">
-        <v>473.99</v>
+        <v>405.6910569105691</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="B22">
         <v>7</v>
       </c>
       <c r="C22">
-        <v>473.99</v>
+        <v>405.6910569105691</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" t="s">
-        <v>53</v>
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>473.99</v>
+        <v>405.6910569105691</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" t="s">
-        <v>53</v>
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
       </c>
       <c r="C24">
-        <v>473.99</v>
+        <v>405.6910569105691</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" t="s">
-        <v>54</v>
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
       </c>
       <c r="C25">
-        <v>473.99</v>
+        <v>405.6910569105691</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" t="s">
-        <v>54</v>
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>473.99</v>
+        <v>405.6910569105691</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" t="s">
-        <v>54</v>
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
       </c>
       <c r="C27">
-        <v>473.99</v>
+        <v>405.6910569105691</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="C28">
-        <v>473.99</v>
+        <v>405.6910569105691</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="C29">
-        <v>473.99</v>
+        <v>405.6910569105691</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C30">
-        <v>473.99</v>
+        <v>893.4959349593496</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>473.99</v>
+        <v>348.78048780487808</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B32">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C32">
-        <v>473.99</v>
+        <v>348.78048780487808</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B33">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C33">
-        <v>473.99</v>
+        <v>348.78048780487808</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B34">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C34">
-        <v>473.99</v>
+        <v>348.78048780487808</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B35">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C35">
-        <v>473.99</v>
+        <v>348.78048780487808</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B36">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C36">
-        <v>473.99</v>
+        <v>348.78048780487808</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B37">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C37">
-        <v>473.99</v>
+        <v>267.47967479674799</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B38">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C38">
-        <v>473.99</v>
+        <v>267.47967479674799</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B39">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C39">
-        <v>473.99</v>
+        <v>267.47967479674799</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B40">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C40">
-        <v>473.99</v>
+        <v>267.47967479674799</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" t="s">
         <v>55</v>
       </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
       <c r="C41">
-        <v>473.99</v>
+        <v>267.47967479674799</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B42">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C42">
-        <v>473.99</v>
+        <v>267.47967479674799</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B43">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C43">
-        <v>473.99</v>
+        <v>267.47967479674799</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B44">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C44">
-        <v>473.99</v>
+        <v>267.47967479674799</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B45">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C45">
-        <v>473.99</v>
+        <v>267.47967479674799</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B46">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C46">
-        <v>473.99</v>
+        <v>447.14634146341467</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B47">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C47">
-        <v>473.99</v>
+        <v>447.14634146341467</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" t="s">
-        <v>3</v>
+        <v>50</v>
+      </c>
+      <c r="B48">
+        <v>13</v>
       </c>
       <c r="C48">
-        <v>453.99</v>
+        <v>405.6910569105691</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49">
-        <v>453.99</v>
-      </c>
-      <c r="D49" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50">
-        <v>449</v>
-      </c>
-      <c r="D50" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51">
-        <v>449</v>
-      </c>
-      <c r="D51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52">
-        <v>449</v>
-      </c>
-      <c r="D52" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53">
-        <v>449</v>
-      </c>
-      <c r="D53" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54">
-        <v>449</v>
-      </c>
-      <c r="D54" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55">
-        <v>449</v>
-      </c>
-      <c r="D55" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56">
-        <v>449</v>
-      </c>
-      <c r="D56" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57">
-        <v>449</v>
-      </c>
-      <c r="D57" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58">
-        <v>449</v>
-      </c>
-      <c r="D58" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59">
-        <v>449</v>
-      </c>
-      <c r="D59" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60">
-        <v>449</v>
-      </c>
-      <c r="D60" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>56</v>
-      </c>
-      <c r="B61" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61">
-        <v>429</v>
-      </c>
-      <c r="D61" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>57</v>
-      </c>
-      <c r="B62" t="s">
-        <v>43</v>
-      </c>
-      <c r="C62">
-        <v>446.34146341463418</v>
-      </c>
-      <c r="D62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>57</v>
-      </c>
-      <c r="B63" t="s">
-        <v>58</v>
-      </c>
-      <c r="C63">
-        <v>446.34146341463418</v>
-      </c>
-      <c r="D63" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>57</v>
-      </c>
-      <c r="B64" t="s">
-        <v>58</v>
-      </c>
-      <c r="C64">
-        <v>446.34146341463418</v>
-      </c>
-      <c r="D64" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>11</v>
-      </c>
-      <c r="B65" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65">
-        <v>405.6910569105691</v>
-      </c>
-      <c r="D65" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>11</v>
-      </c>
-      <c r="B66" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66">
-        <v>405.6910569105691</v>
-      </c>
-      <c r="D66" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>11</v>
-      </c>
-      <c r="B67" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67">
-        <v>405.6910569105691</v>
-      </c>
-      <c r="D67" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>11</v>
-      </c>
-      <c r="B68" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68">
-        <v>405.6910569105691</v>
-      </c>
-      <c r="D68" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>11</v>
-      </c>
-      <c r="B69" t="s">
-        <v>43</v>
-      </c>
-      <c r="C69">
-        <v>405.6910569105691</v>
-      </c>
-      <c r="D69" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B70" t="s">
-        <v>43</v>
-      </c>
-      <c r="C70">
-        <v>405.6910569105691</v>
-      </c>
-      <c r="D70" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2445,10 +1892,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4C7E3B-80D0-F94D-BD6A-BB51AA7D03DC}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2468,200 +1915,183 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
       </c>
       <c r="C2">
-        <v>493.99</v>
+        <v>374.99</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
       </c>
       <c r="C3">
-        <v>493.99</v>
+        <v>374.99</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C4">
-        <v>509</v>
+        <v>374.99</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
       <c r="C5">
-        <v>611.99</v>
+        <v>374.99</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C6">
-        <v>549</v>
+        <v>374.99</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7">
-        <v>12</v>
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
       </c>
       <c r="C7">
-        <v>549</v>
+        <v>374.99</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>59</v>
       </c>
-      <c r="B8">
-        <v>13</v>
+      <c r="B8" t="s">
+        <v>60</v>
       </c>
       <c r="C8">
-        <v>549</v>
+        <v>446.34146341463418</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
         <v>60</v>
       </c>
-      <c r="B9">
-        <v>14</v>
-      </c>
       <c r="C9">
-        <v>399</v>
+        <v>446.34146341463418</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
       </c>
       <c r="C10">
-        <v>599.99</v>
+        <v>446.34146341463418</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
       </c>
       <c r="C11">
-        <v>599.99</v>
+        <v>446.34146341463418</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>324.39024390243901</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/input/stock.xlsx
+++ b/input/stock.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patryk_dratwa/Documents/codes/priceChecker/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09381541-72B6-714B-BD04-12F90D0F4616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3453FFA6-EE89-CE4E-A46D-4E0A347916FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="4100" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flip" sheetId="26" r:id="rId1"/>
     <sheet name="hold" sheetId="23" r:id="rId2"/>
+    <sheet name="expected" sheetId="27" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="53">
   <si>
     <t>size</t>
   </si>
@@ -82,9 +83,6 @@
     <t>BB550PB1</t>
   </si>
   <si>
-    <t>5.5</t>
-  </si>
-  <si>
     <t>FD0873-126</t>
   </si>
   <si>
@@ -94,12 +92,6 @@
     <t>HQ8708</t>
   </si>
   <si>
-    <t>4.5Y</t>
-  </si>
-  <si>
-    <t>HQ8707</t>
-  </si>
-  <si>
     <t>BD7632</t>
   </si>
   <si>
@@ -133,9 +125,6 @@
     <t>4.5</t>
   </si>
   <si>
-    <t>HQ6507</t>
-  </si>
-  <si>
     <t>12W</t>
   </si>
   <si>
@@ -167,6 +156,42 @@
   </si>
   <si>
     <t>DV0833-300</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>GY6433</t>
+  </si>
+  <si>
+    <t>IF6562</t>
+  </si>
+  <si>
+    <t>8W</t>
+  </si>
+  <si>
+    <t>IF6561</t>
+  </si>
+  <si>
+    <t>9.5W</t>
+  </si>
+  <si>
+    <t>DH9765-003</t>
+  </si>
+  <si>
+    <t>DV0831-101</t>
+  </si>
+  <si>
+    <t>FD0661-100</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>DJ9955-100</t>
+  </si>
+  <si>
+    <t>9W</t>
   </si>
 </sst>
 </file>
@@ -506,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592E943B-38F4-2241-86E9-FC32F11AB7C5}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E17"/>
+      <selection activeCell="D2" sqref="D2:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -540,7 +565,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>13</v>
@@ -557,10 +582,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>599</v>
@@ -574,7 +599,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -591,13 +616,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>399</v>
+        <v>503.99</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -608,13 +633,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C6">
-        <v>399</v>
+        <v>405.6910569105691</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -625,13 +650,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
       <c r="C7">
-        <v>399</v>
+        <v>324.39024390243901</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -642,13 +667,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C8">
-        <v>503.99</v>
+        <v>446.34146341463418</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -659,13 +684,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C9">
-        <v>405.6910569105691</v>
+        <v>446.34146341463418</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -676,13 +701,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
       </c>
       <c r="C10">
-        <v>324.39024390243901</v>
+        <v>405.6910569105691</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -693,16 +718,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C11">
-        <v>259.34959349593498</v>
+        <v>405.6910569105691</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -710,13 +735,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
       <c r="C12">
-        <v>446.34146341463418</v>
+        <v>405.6910569105691</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -727,13 +752,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
       <c r="C13">
-        <v>446.34146341463418</v>
+        <v>405.6910569105691</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -744,16 +769,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C14">
-        <v>405.6910569105691</v>
+        <v>349.58536585365857</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
@@ -761,16 +786,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C15">
-        <v>405.6910569105691</v>
+        <v>349.58536585365857</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
@@ -778,16 +803,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C16">
-        <v>405.6910569105691</v>
+        <v>349.58536585365857</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
@@ -795,18 +820,69 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>349.58536585365857</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="C17">
+      <c r="C18">
+        <v>409.7479674796748</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>365.84552845528458</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>13</v>
+      </c>
+      <c r="C20">
         <v>405.6910569105691</v>
       </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
         <v>6</v>
       </c>
     </row>
@@ -817,10 +893,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3ED77E-355F-451A-8EC6-B2847837F9C7}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -851,7 +927,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -868,16 +944,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>503.99</v>
+        <v>399</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -885,13 +961,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>592.20000000000005</v>
+        <v>399</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -902,16 +978,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>405.6910569105691</v>
+        <v>399</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -919,13 +995,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>405.6910569105691</v>
+        <v>503.99</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -936,16 +1012,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>405.6910569105691</v>
+        <v>592.20000000000005</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -953,16 +1029,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>405.6910569105691</v>
+        <v>357.07317073170731</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -973,10 +1049,10 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C9">
-        <v>405.6910569105691</v>
+        <v>324.39024390243901</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -987,30 +1063,30 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>405.6910569105691</v>
+        <v>267.47967479674799</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>405.6910569105691</v>
+        <v>447.14634146341467</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -1021,16 +1097,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>357.07317073170731</v>
+        <v>447.14634146341467</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -1038,30 +1114,30 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>324.39024390243901</v>
+        <v>369.09756097560978</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>267.47967479674799</v>
+        <v>369.09756097560978</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
@@ -1072,13 +1148,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15">
-        <v>8</v>
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
       </c>
       <c r="C15">
-        <v>267.47967479674799</v>
+        <v>409.7479674796748</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -1089,324 +1165,86 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
       </c>
       <c r="C16">
-        <v>447.14634146341467</v>
+        <v>409.7479674796748</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C17">
-        <v>447.14634146341467</v>
+        <v>439.01626016260167</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18">
         <v>11</v>
       </c>
       <c r="C18">
-        <v>349.58536585365857</v>
+        <v>439.01626016260167</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
         <v>11</v>
       </c>
       <c r="C19">
-        <v>349.58536585365857</v>
+        <v>439.01626016260167</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C20">
-        <v>349.58536585365857</v>
+        <v>447.15447154471548</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21">
-        <v>349.58536585365857</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22">
-        <v>349.58536585365857</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23">
-        <v>365.04065040650408</v>
-      </c>
-      <c r="D23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24">
-        <v>369.09756097560978</v>
-      </c>
-      <c r="D24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25">
-        <v>369.09756097560978</v>
-      </c>
-      <c r="D25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26">
-        <v>409.7479674796748</v>
-      </c>
-      <c r="D26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27">
-        <v>409.7479674796748</v>
-      </c>
-      <c r="D27" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28">
-        <v>409.7479674796748</v>
-      </c>
-      <c r="D28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29">
-        <v>12</v>
-      </c>
-      <c r="C29">
-        <v>365.84552845528458</v>
-      </c>
-      <c r="D29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30">
-        <v>11</v>
-      </c>
-      <c r="C30">
-        <v>439.01626016260167</v>
-      </c>
-      <c r="D30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31">
-        <v>11</v>
-      </c>
-      <c r="C31">
-        <v>439.01626016260167</v>
-      </c>
-      <c r="D31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32">
-        <v>11</v>
-      </c>
-      <c r="C32">
-        <v>439.01626016260167</v>
-      </c>
-      <c r="D32" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33">
-        <v>13</v>
-      </c>
-      <c r="C33">
-        <v>405.6910569105691</v>
-      </c>
-      <c r="D33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34">
-        <v>447.15447154471548</v>
-      </c>
-      <c r="D34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1414,4 +1252,342 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D462C50-660B-7242-85C0-0BE3297CEC59}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>405.6910569105691</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>405.6910569105691</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>405.6910569105691</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>332.52032520325201</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>336.57723577235771</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7">
+        <v>332.52032520325201</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>336.57723577235771</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>332.52032520325201</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>332.52032520325201</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11">
+        <v>332.52032520325201</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>405.6910569105691</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>405.6910569105691</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>365.84552845528458</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>365.84552845528458</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16">
+        <v>439.01626016260167</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>447.10569105691064</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>243.89430894308944</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19">
+        <v>243.89430894308944</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input/stock.xlsx
+++ b/input/stock.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patryk_dratwa/Documents/codes/priceChecker/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3453FFA6-EE89-CE4E-A46D-4E0A347916FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B750FA-4E8A-904F-841A-DF10770AC333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="4100" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="40">
   <si>
     <t>size</t>
   </si>
@@ -56,142 +56,103 @@
     <t>NIE</t>
   </si>
   <si>
-    <t>H01878</t>
-  </si>
-  <si>
     <t>10.5W</t>
   </si>
   <si>
+    <t>BB550PB1</t>
+  </si>
+  <si>
+    <t>FD0873-126</t>
+  </si>
+  <si>
+    <t>DV0427-301</t>
+  </si>
+  <si>
+    <t>7.5W</t>
+  </si>
+  <si>
     <t>6.5</t>
   </si>
   <si>
-    <t>DX3382-400</t>
-  </si>
-  <si>
-    <t>7Y</t>
-  </si>
-  <si>
-    <t>8.5W</t>
-  </si>
-  <si>
-    <t>DO9457-100</t>
-  </si>
-  <si>
-    <t>HP6772</t>
-  </si>
-  <si>
-    <t>BB550PB1</t>
-  </si>
-  <si>
-    <t>FD0873-126</t>
-  </si>
-  <si>
-    <t>DV5429-600</t>
+    <t>207393-4OF</t>
+  </si>
+  <si>
+    <t>H06261</t>
+  </si>
+  <si>
+    <t>DZ5485-303</t>
+  </si>
+  <si>
+    <t>DC0774-304</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>ID2048</t>
   </si>
   <si>
     <t>HQ8708</t>
   </si>
   <si>
-    <t>BD7632</t>
-  </si>
-  <si>
-    <t>553558-371</t>
-  </si>
-  <si>
-    <t>DV0427-301</t>
-  </si>
-  <si>
-    <t>7.5W</t>
-  </si>
-  <si>
-    <t>DZ5485-303</t>
-  </si>
-  <si>
-    <t>DD1399-106</t>
-  </si>
-  <si>
-    <t>HR1467</t>
-  </si>
-  <si>
-    <t>IG3136</t>
-  </si>
-  <si>
-    <t>7W</t>
+    <t>1201A906-001</t>
+  </si>
+  <si>
+    <t>1201A019-104</t>
+  </si>
+  <si>
+    <t>H03474</t>
+  </si>
+  <si>
+    <t>H03472</t>
+  </si>
+  <si>
+    <t>H03471</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>12W</t>
-  </si>
-  <si>
-    <t>FN7167-100</t>
-  </si>
-  <si>
-    <t>10W</t>
-  </si>
-  <si>
-    <t>11.5W</t>
-  </si>
-  <si>
-    <t>FJ4227-001</t>
-  </si>
-  <si>
-    <t>DD1503-103</t>
-  </si>
-  <si>
-    <t>ID4132</t>
-  </si>
-  <si>
-    <t>DV5429-601</t>
-  </si>
-  <si>
-    <t>11.5</t>
-  </si>
-  <si>
-    <t>CW1590-600</t>
-  </si>
-  <si>
-    <t>DV0833-300</t>
+    <t>BD7633</t>
+  </si>
+  <si>
+    <t>H03477</t>
+  </si>
+  <si>
+    <t>HQ6638</t>
+  </si>
+  <si>
+    <t>5.5Y</t>
+  </si>
+  <si>
+    <t>6Y</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>CT8012-170</t>
+  </si>
+  <si>
+    <t>HQ8707</t>
   </si>
   <si>
     <t>8.5</t>
   </si>
   <si>
-    <t>GY6433</t>
-  </si>
-  <si>
-    <t>IF6562</t>
-  </si>
-  <si>
-    <t>8W</t>
-  </si>
-  <si>
-    <t>IF6561</t>
-  </si>
-  <si>
-    <t>9.5W</t>
-  </si>
-  <si>
-    <t>DH9765-003</t>
-  </si>
-  <si>
-    <t>DV0831-101</t>
-  </si>
-  <si>
-    <t>FD0661-100</t>
-  </si>
-  <si>
-    <t>10.5</t>
-  </si>
-  <si>
-    <t>DJ9955-100</t>
-  </si>
-  <si>
-    <t>9W</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>HQ6507</t>
+  </si>
+  <si>
+    <t>4Y</t>
+  </si>
+  <si>
+    <t>4.5Y</t>
   </si>
 </sst>
 </file>
@@ -531,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592E943B-38F4-2241-86E9-FC32F11AB7C5}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E20"/>
+      <selection activeCell="D2" sqref="D2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -565,30 +526,30 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>489</v>
+        <v>809</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>599</v>
+        <v>405.6910569105691</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -599,13 +560,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>809</v>
+        <v>405.6910569105691</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -616,273 +577,18 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>503.99</v>
+        <v>377.22764227642278</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6">
-        <v>405.6910569105691</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>324.39024390243901</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8">
-        <v>446.34146341463418</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9">
-        <v>446.34146341463418</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10">
-        <v>405.6910569105691</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11">
-        <v>405.6910569105691</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12">
-        <v>405.6910569105691</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13">
-        <v>405.6910569105691</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <v>349.58536585365857</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15">
-        <v>349.58536585365857</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16">
-        <v>349.58536585365857</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17">
-        <v>349.58536585365857</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18">
-        <v>409.7479674796748</v>
-      </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19">
-        <v>12</v>
-      </c>
-      <c r="C19">
-        <v>365.84552845528458</v>
-      </c>
-      <c r="D19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20">
-        <v>13</v>
-      </c>
-      <c r="C20">
-        <v>405.6910569105691</v>
-      </c>
-      <c r="D20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" t="s">
         <v>6</v>
       </c>
     </row>
@@ -893,10 +599,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3ED77E-355F-451A-8EC6-B2847837F9C7}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E20"/>
+    <sheetView topLeftCell="A36" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F57" sqref="F56:F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -927,13 +633,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
       </c>
       <c r="C2">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -944,13 +650,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
       <c r="C3">
-        <v>399</v>
+        <v>197.88</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -967,7 +673,7 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>399</v>
+        <v>665.37</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -978,13 +684,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>399</v>
+        <v>728</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -995,16 +701,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>503.99</v>
+        <v>728</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -1012,10 +718,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>592.20000000000005</v>
@@ -1029,16 +735,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
       </c>
       <c r="C8">
-        <v>357.07317073170731</v>
+        <v>405.6910569105691</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -1046,13 +752,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C9">
-        <v>324.39024390243901</v>
+        <v>405.6910569105691</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -1063,30 +769,30 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>267.47967479674799</v>
+        <v>405.6910569105691</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>7</v>
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>447.14634146341467</v>
+        <v>405.6910569105691</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -1097,13 +803,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>7</v>
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>447.14634146341467</v>
+        <v>405.6910569105691</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -1114,137 +820,715 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13">
-        <v>369.09756097560978</v>
+        <v>407.3089430894309</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>369.09756097560978</v>
+        <v>407.3089430894309</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C15">
-        <v>409.7479674796748</v>
+        <v>407.3089430894309</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>409.7479674796748</v>
+        <v>407.3089430894309</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
       </c>
       <c r="C17">
-        <v>439.01626016260167</v>
+        <v>407.3089430894309</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
       </c>
       <c r="C18">
-        <v>439.01626016260167</v>
+        <v>407.3089430894309</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
       </c>
       <c r="C19">
-        <v>439.01626016260167</v>
+        <v>309.7479674796748</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C20">
-        <v>447.15447154471548</v>
+        <v>309.7479674796748</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
       </c>
       <c r="E20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>309.7479674796748</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>309.7479674796748</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>309.7479674796748</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>309.7479674796748</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>309.7479674796748</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>309.7479674796748</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>309.7479674796748</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>309.7479674796748</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>406.4959349593496</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30">
+        <v>406.4959349593496</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>407.3089430894309</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32">
+        <v>405.6910569105691</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33">
+        <v>405.6910569105691</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>405.6910569105691</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>405.6910569105691</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>405.6910569105691</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37">
+        <v>373.17073170731709</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38">
+        <v>446.34146341463418</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39">
+        <v>446.34146341463418</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40">
+        <v>446.34146341463418</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41">
+        <v>357.71544715447158</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42">
+        <v>357.71544715447158</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43">
+        <v>357.71544715447158</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44">
+        <v>357.71544715447158</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45">
+        <v>357.71544715447158</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46">
+        <v>336.57723577235771</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47">
+        <v>336.57723577235771</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>336.57723577235771</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>332.52032520325201</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50">
+        <v>381.30081300813009</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>592.68292682926835</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>325.19512195121951</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>447.14634146341467</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>447.14634146341467</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1256,13 +1540,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D462C50-660B-7242-85C0-0BE3297CEC59}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1283,10 +1574,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
       </c>
       <c r="C2">
         <v>405.6910569105691</v>
@@ -1300,10 +1591,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>405.6910569105691</v>
@@ -1317,10 +1608,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
       </c>
       <c r="C4">
         <v>405.6910569105691</v>
@@ -1329,69 +1620,69 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C5">
-        <v>332.52032520325201</v>
+        <v>308.130081300813</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C6">
-        <v>336.57723577235771</v>
+        <v>308.130081300813</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C7">
-        <v>332.52032520325201</v>
+        <v>308.130081300813</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C8">
-        <v>336.57723577235771</v>
+        <v>308.130081300813</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -1402,13 +1693,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C9">
-        <v>332.52032520325201</v>
+        <v>308.130081300813</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -1419,33 +1710,33 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C10">
-        <v>332.52032520325201</v>
+        <v>308.130081300813</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C11">
-        <v>332.52032520325201</v>
+        <v>405.6910569105691</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -1453,13 +1744,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
       </c>
       <c r="C12">
-        <v>405.6910569105691</v>
+        <v>357.71544715447158</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -1470,121 +1761,19 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>405.6910569105691</v>
+        <v>332.52032520325201</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <v>365.84552845528458</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15">
-        <v>365.84552845528458</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16">
-        <v>439.01626016260167</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17">
-        <v>447.10569105691064</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18">
-        <v>243.89430894308944</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19">
-        <v>243.89430894308944</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
